--- a/trunk/doc/mapping results/termsMapping_studyFactorClassification.xlsx
+++ b/trunk/doc/mapping results/termsMapping_studyFactorClassification.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="25230" windowHeight="5880" tabRatio="690" activeTab="2"/>
+    <workbookView xWindow="30" yWindow="5985" windowWidth="25170" windowHeight="6090" tabRatio="690"/>
   </bookViews>
   <sheets>
-    <sheet name="StudyProperty Intent" sheetId="6" r:id="rId1"/>
-    <sheet name="StudyProperty Platform" sheetId="7" r:id="rId2"/>
+    <sheet name="Summary StudyPropertyFactor" sheetId="12" r:id="rId1"/>
+    <sheet name="StudyProperty Intent" sheetId="6" r:id="rId2"/>
     <sheet name="StudyProperty Relation" sheetId="10" r:id="rId3"/>
     <sheet name="StudyProperty Relation Mapping" sheetId="9" r:id="rId4"/>
+    <sheet name="StudyProperty Platform" sheetId="7" r:id="rId5"/>
+    <sheet name="StudyProperty Platform Mapping" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="419">
   <si>
     <t>Foxa2</t>
   </si>
@@ -201,9 +203,6 @@
     <t>TF Binding</t>
   </si>
   <si>
-    <t>transcription factor binding site identification assay</t>
-  </si>
-  <si>
     <t>Epigenomic</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -224,9 +223,6 @@
   </si>
   <si>
     <t>A ChIP-chip assay that identifies sites of DNA methylation.</t>
-  </si>
-  <si>
-    <t>An assay that identifies where a transcription factor binds specifically on a nucleic acid.</t>
   </si>
   <si>
     <t>A ChIP-chip assay to identify regions containing specific histones and their modifications.</t>
@@ -863,12 +859,495 @@
   <si>
     <t>has_participant some 'islet of Langerhans' / not use this axioms since it is in vitro rather than in vivo</t>
   </si>
+  <si>
+    <t>Mapped terms</t>
+  </si>
+  <si>
+    <t>Ontology Term URI</t>
+  </si>
+  <si>
+    <t>BCBC Definition</t>
+  </si>
+  <si>
+    <t>Expression RNA-Seq</t>
+  </si>
+  <si>
+    <t>RNA-seq assay</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001271</t>
+  </si>
+  <si>
+    <t>Study uses HTS (RNA-Seq) for expression profiling.</t>
+  </si>
+  <si>
+    <t>Expression microarray</t>
+  </si>
+  <si>
+    <t>transcription profiling by array assay</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001463</t>
+  </si>
+  <si>
+    <t>Study uses an array platform for expression profiling.</t>
+  </si>
+  <si>
+    <t>Expression RT-PCR</t>
+  </si>
+  <si>
+    <t>transcription profiling by RT-PCR assay</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001361</t>
+  </si>
+  <si>
+    <t>Study uses reverse transcriptase-polymerase chain reaction (RT-PCR) in a quantitative (e.g., Taqman) or semi-quantitative manner for expression profiling.</t>
+  </si>
+  <si>
+    <t>Open chromatin FAIRE-Seq</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>formaldehyde-assisted isolation of regulatory elements assay</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001859</t>
+  </si>
+  <si>
+    <t>Study uses formaldehyde-assisted isolation of regulatory elements combined with HTS (FAIRE-Seq) to identify regions containing open chromatin.</t>
+  </si>
+  <si>
+    <t>Open chromatin DNase-Seq</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNase I hypersensitive sites sequencing assay</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001853</t>
+  </si>
+  <si>
+    <t>Study uses DNaseI sensitivity combined with HTS (DNase-Seq) to identify regions containing open chromatin.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>transcription profiling assay</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000424</t>
+  </si>
+  <si>
+    <t>Study which uses any kind of expression assay.</t>
+  </si>
+  <si>
+    <t>expression MPSS</t>
+  </si>
+  <si>
+    <t>histone modification ChIP-chip</t>
+  </si>
+  <si>
+    <t>histone modification ChIP-Seq</t>
+  </si>
+  <si>
+    <t>TF Binding ChIP-Seq</t>
+  </si>
+  <si>
+    <t>Open chromatin FAIRE-Seq</t>
+  </si>
+  <si>
+    <t>Open chromatin DNase-Seq</t>
+  </si>
+  <si>
+    <t>Ontology Term IRI</t>
+  </si>
+  <si>
+    <t>Ontology Term Label</t>
+  </si>
+  <si>
+    <t>BCBC term</t>
+  </si>
+  <si>
+    <t>transcription factor binding site identification</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002014</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BCGO_0000089</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BCGO_0000088</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002015</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002016</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002017</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002018</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002019</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002020</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002021</t>
+  </si>
+  <si>
+    <t>Study which uses any kind of TF binding assay.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">characterization of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>cell differentiation objective</t>
+    </r>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BCGO_0000076</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BCGO_0000077</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BCGO_0000078</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BCGO_0000079</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BCGO_0000080</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BCGO_0000081</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BCGO_0000082</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>islet expansion in vitro</t>
+  </si>
+  <si>
+    <t>stress and apoptosis in islets or beta cells</t>
+  </si>
+  <si>
+    <t>pancreas development</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GO_0031016</t>
+  </si>
+  <si>
+    <t>new term in BCGO: 'response to stress' or apoptosis</t>
+  </si>
+  <si>
+    <t>new term in BCGO: exocrine or endocrine cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Or use CL:secretory cell, A cell that specializes in controlled release of one or more substances. </t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BCGO_0000083</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BCGO_0000084</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BCGO_0000085</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BCGO_0000086</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BCGO_0000087</t>
+  </si>
+  <si>
+    <t>Study is in the category of tissue expression, surveys and comparisons and specifically compares different types of cells in the endocrine and/or exocrine pancreas.</t>
+  </si>
+  <si>
+    <t>Study is in the category of Islet/beta-cell stimulation/injury and addresses stress sometimes as a means to induce apotosis in islets/ beta cells.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Experimental Factors</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://purl.obolibrary.org/obo/OBI_0001167 </t>
+  </si>
+  <si>
+    <t>age measurement datum</t>
+  </si>
+  <si>
+    <t>cell_line</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0100056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immortalized cell line culture </t>
+  </si>
+  <si>
+    <t>MO term</t>
+  </si>
+  <si>
+    <t>cell_type</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CL_0000000</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>change_biomaterial_characteristics</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001147</t>
+  </si>
+  <si>
+    <t>cell culture expansion</t>
+  </si>
+  <si>
+    <t>compound_based_treatment</t>
+  </si>
+  <si>
+    <t>developmental_stage</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UBERON_0000105</t>
+  </si>
+  <si>
+    <t>life cycle stage</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0000369</t>
+  </si>
+  <si>
+    <t>compound based treatment</t>
+  </si>
+  <si>
+    <t>disease_staging</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000278</t>
+  </si>
+  <si>
+    <t>disease stage</t>
+  </si>
+  <si>
+    <t>disease_state</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_1110055</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>genetic_modification</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0600043</t>
+  </si>
+  <si>
+    <t>genetic transformation</t>
+  </si>
+  <si>
+    <t>grow</t>
+  </si>
+  <si>
+    <t>harvest</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001483</t>
+  </si>
+  <si>
+    <t>cell collecting</t>
+  </si>
+  <si>
+    <t>hybridization</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0302903</t>
+  </si>
+  <si>
+    <t>nucleic acid hybridization</t>
+  </si>
+  <si>
+    <t>incubate</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001141</t>
+  </si>
+  <si>
+    <t>individual organism identifier</t>
+  </si>
+  <si>
+    <t>individual_genetic_characteristic</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001404</t>
+  </si>
+  <si>
+    <t>genetic characteristics information</t>
+  </si>
+  <si>
+    <t>inoculate</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_1110021</t>
+  </si>
+  <si>
+    <t>infection</t>
+  </si>
+  <si>
+    <t>organism_part</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CARO_0001008</t>
+  </si>
+  <si>
+    <t>gross anatomical part</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0000493</t>
+  </si>
+  <si>
+    <t>family history</t>
+  </si>
+  <si>
+    <t>clinical_information</t>
+  </si>
+  <si>
+    <t>physical_characteristics</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GO_0030154</t>
+  </si>
+  <si>
+    <t>cell differentiation</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0001799</t>
+  </si>
+  <si>
+    <t>ethnic group</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0001241</t>
+  </si>
+  <si>
+    <t>physical object quality</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GO_0007565</t>
+  </si>
+  <si>
+    <t>female pregnancy</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BCGO_0000070</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0000047</t>
+  </si>
+  <si>
+    <t>biological sex</t>
+  </si>
+  <si>
+    <t>specified_biomaterial_action</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ERO_0000378</t>
+  </si>
+  <si>
+    <t>surgery</t>
+  </si>
+  <si>
+    <t>starvation</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0002756</t>
+  </si>
+  <si>
+    <t>fasting</t>
+  </si>
+  <si>
+    <t>strain_or_line</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001185</t>
+  </si>
+  <si>
+    <t>selectively maintained organism</t>
+  </si>
+  <si>
+    <t>timepoint</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001508</t>
+  </si>
+  <si>
+    <t>sampling time measurement datum</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000045</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>Pancreatic</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BCGO_0000071</t>
+  </si>
+  <si>
+    <t>pancreatic material</t>
+  </si>
+  <si>
+    <t>Tissue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -987,6 +1466,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1038,7 +1531,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1082,6 +1575,8 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1392,10 +1887,1076 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.140625" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" customWidth="1"/>
+    <col min="3" max="3" width="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>288</v>
+      </c>
+      <c r="B18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>312</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>313</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>314</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>316</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>318</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="35" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>327</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>328</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>329</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>330</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>331</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="35" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>416</v>
+      </c>
+      <c r="B64" t="s">
+        <v>417</v>
+      </c>
+      <c r="C64" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="35" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="35" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>337</v>
+      </c>
+      <c r="B79" t="s">
+        <v>338</v>
+      </c>
+      <c r="C79" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>340</v>
+      </c>
+      <c r="B80" t="s">
+        <v>341</v>
+      </c>
+      <c r="C80" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>344</v>
+      </c>
+      <c r="B81" t="s">
+        <v>345</v>
+      </c>
+      <c r="C81" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>347</v>
+      </c>
+      <c r="B82" t="s">
+        <v>348</v>
+      </c>
+      <c r="C82" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>384</v>
+      </c>
+      <c r="B83" t="s">
+        <v>385</v>
+      </c>
+      <c r="C83" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>353</v>
+      </c>
+      <c r="B84" t="s">
+        <v>354</v>
+      </c>
+      <c r="C84" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>351</v>
+      </c>
+      <c r="B85" t="s">
+        <v>352</v>
+      </c>
+      <c r="C85" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>356</v>
+      </c>
+      <c r="B86" t="s">
+        <v>357</v>
+      </c>
+      <c r="C86" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>359</v>
+      </c>
+      <c r="B87" t="s">
+        <v>360</v>
+      </c>
+      <c r="C87" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>362</v>
+      </c>
+      <c r="B88" t="s">
+        <v>363</v>
+      </c>
+      <c r="C88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>347</v>
+      </c>
+      <c r="B89" t="s">
+        <v>348</v>
+      </c>
+      <c r="C89" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>366</v>
+      </c>
+      <c r="B90" t="s">
+        <v>367</v>
+      </c>
+      <c r="C90" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>369</v>
+      </c>
+      <c r="B91" t="s">
+        <v>370</v>
+      </c>
+      <c r="C91" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>347</v>
+      </c>
+      <c r="B92" t="s">
+        <v>348</v>
+      </c>
+      <c r="C92" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>373</v>
+      </c>
+      <c r="B93" t="s">
+        <v>374</v>
+      </c>
+      <c r="C93" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>376</v>
+      </c>
+      <c r="B94" t="s">
+        <v>377</v>
+      </c>
+      <c r="C94" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>379</v>
+      </c>
+      <c r="B95" t="s">
+        <v>380</v>
+      </c>
+      <c r="C95" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>382</v>
+      </c>
+      <c r="B96" t="s">
+        <v>383</v>
+      </c>
+      <c r="C96" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>388</v>
+      </c>
+      <c r="B97" t="s">
+        <v>389</v>
+      </c>
+      <c r="C97" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>390</v>
+      </c>
+      <c r="B98" t="s">
+        <v>391</v>
+      </c>
+      <c r="C98" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>392</v>
+      </c>
+      <c r="B99" t="s">
+        <v>393</v>
+      </c>
+      <c r="C99" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>394</v>
+      </c>
+      <c r="B100" t="s">
+        <v>395</v>
+      </c>
+      <c r="C100" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>396</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>398</v>
+      </c>
+      <c r="B102" t="s">
+        <v>399</v>
+      </c>
+      <c r="C102" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>401</v>
+      </c>
+      <c r="B103" t="s">
+        <v>402</v>
+      </c>
+      <c r="C103" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>404</v>
+      </c>
+      <c r="B104" t="s">
+        <v>405</v>
+      </c>
+      <c r="C104" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>407</v>
+      </c>
+      <c r="B105" t="s">
+        <v>408</v>
+      </c>
+      <c r="C105" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>410</v>
+      </c>
+      <c r="B106" t="s">
+        <v>411</v>
+      </c>
+      <c r="C106" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>413</v>
+      </c>
+      <c r="B107" t="s">
+        <v>414</v>
+      </c>
+      <c r="C107" t="s">
+        <v>412</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,10 +2977,10 @@
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>8</v>
@@ -1428,19 +2989,19 @@
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1451,28 +3012,28 @@
         <v>11</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1483,25 +3044,25 @@
         <v>13</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1512,28 +3073,28 @@
         <v>15</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1544,28 +3105,28 @@
         <v>16</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1576,28 +3137,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1608,28 +3169,28 @@
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1640,28 +3201,28 @@
         <v>18</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1673,25 +3234,25 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -1709,12 +3270,905 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G13" sqref="F13:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" customWidth="1"/>
+    <col min="8" max="8" width="98.28515625" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I3" s="13"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="E5"/>
+      <c r="H5" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E7"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E9"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G11" t="s">
+        <v>220</v>
+      </c>
+      <c r="H11" t="s">
+        <v>230</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="24"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="8" width="63.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D43"/>
+      <c r="E43" s="13"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="I43" s="17"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:H29">
+    <sortCondition ref="A2:A29"/>
+    <sortCondition ref="D2:D29"/>
+    <sortCondition ref="B2:B29"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA12"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,76 +4208,76 @@
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O1" s="15" t="s">
+      <c r="R1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="T1" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -1831,10 +4285,10 @@
         <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1843,37 +4297,37 @@
         <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="X2" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -1881,10 +4335,10 @@
         <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
         <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1893,36 +4347,36 @@
         <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="X3" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Y3" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -1943,55 +4397,55 @@
         <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T4" t="s">
+        <v>122</v>
+      </c>
+      <c r="U4" t="s">
+        <v>121</v>
+      </c>
+      <c r="V4" t="s">
+        <v>125</v>
+      </c>
+      <c r="W4" t="s">
         <v>124</v>
-      </c>
-      <c r="U4" t="s">
-        <v>123</v>
-      </c>
-      <c r="V4" t="s">
-        <v>127</v>
-      </c>
-      <c r="W4" t="s">
-        <v>126</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="Y4" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AA4" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -2012,37 +4466,37 @@
         <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Y5" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA5" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -2063,37 +4517,37 @@
         <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M6" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="X6" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y6" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -2101,55 +4555,52 @@
         <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="Q7" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R7" t="s">
-        <v>97</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>66</v>
+        <v>95</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="Y7" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA7" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -2157,52 +4608,52 @@
         <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="N8" t="s">
         <v>105</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="O8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="P8" t="s">
         <v>109</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="Q8" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="X8" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y8" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA8" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -2210,177 +4661,124 @@
         <v>39</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="N9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" t="s">
         <v>109</v>
       </c>
-      <c r="P9" t="s">
-        <v>111</v>
-      </c>
       <c r="Q9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="T9" t="s">
+        <v>129</v>
+      </c>
+      <c r="U9" t="s">
+        <v>128</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y9" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" t="s">
+        <v>225</v>
+      </c>
+      <c r="L10" t="s">
+        <v>226</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q10" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R10" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="X9" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y9" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z9" t="s">
+      <c r="X10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y10" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="AA9" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="P10" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T10" t="s">
-        <v>131</v>
-      </c>
-      <c r="U10" t="s">
-        <v>130</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y10" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>83</v>
+      <c r="Z10" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="AA10" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" t="s">
-        <v>227</v>
-      </c>
-      <c r="L11" t="s">
-        <v>228</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="P11" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z11" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA11" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="J13" s="17"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="J12" s="17"/>
     </row>
   </sheetData>
   <sortState ref="A2:Z10">
@@ -2388,8 +4786,8 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="Z4" r:id="rId1"/>
-    <hyperlink ref="Z11" r:id="rId2"/>
-    <hyperlink ref="G10" r:id="rId3"/>
+    <hyperlink ref="Z10" r:id="rId2"/>
+    <hyperlink ref="G9" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2401,895 +4799,166 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" customWidth="1"/>
-    <col min="8" max="8" width="98.28515625" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" customWidth="1"/>
-    <col min="10" max="10" width="26.42578125" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="61.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>218</v>
+      <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I3" s="13"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="E5"/>
-      <c r="H5" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E7"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E9"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>221</v>
-      </c>
-      <c r="G11" t="s">
-        <v>222</v>
-      </c>
-      <c r="H11" t="s">
-        <v>232</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J12" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H21" s="22"/>
+        <v>267</v>
+      </c>
+      <c r="D2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="3"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="13"/>
+      <c r="AA8" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I43"/>
-  <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="37.28515625" customWidth="1"/>
-    <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="8" width="63.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="F10" t="s">
-        <v>203</v>
-      </c>
-      <c r="G10"/>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F15"/>
-      <c r="G15" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D16" t="s">
-        <v>166</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" t="s">
-        <v>172</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" t="s">
-        <v>176</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="26"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="43" spans="4:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D43"/>
-      <c r="E43" s="13"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="I43" s="17"/>
-    </row>
-  </sheetData>
-  <sortState ref="A2:H29">
-    <sortCondition ref="A2:A29"/>
-    <sortCondition ref="D2:D29"/>
-    <sortCondition ref="B2:B29"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/trunk/doc/mapping results/termsMapping_studyFactorClassification.xlsx
+++ b/trunk/doc/mapping results/termsMapping_studyFactorClassification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="5985" windowWidth="25170" windowHeight="6090" tabRatio="690"/>
+    <workbookView xWindow="30" yWindow="5985" windowWidth="25170" windowHeight="6090" tabRatio="884"/>
   </bookViews>
   <sheets>
     <sheet name="Summary StudyPropertyFactor" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="415">
   <si>
     <t>Foxa2</t>
   </si>
@@ -1048,24 +1048,12 @@
     <t>islet expansion in vitro</t>
   </si>
   <si>
-    <t>stress and apoptosis in islets or beta cells</t>
-  </si>
-  <si>
     <t>pancreas development</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/GO_0031016</t>
   </si>
   <si>
-    <t>new term in BCGO: 'response to stress' or apoptosis</t>
-  </si>
-  <si>
-    <t>new term in BCGO: exocrine or endocrine cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Or use CL:secretory cell, A cell that specializes in controlled release of one or more substances. </t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/BCGO_0000083</t>
   </si>
   <si>
@@ -1081,16 +1069,6 @@
     <t>http://purl.obolibrary.org/obo/BCGO_0000087</t>
   </si>
   <si>
-    <t>Study is in the category of tissue expression, surveys and comparisons and specifically compares different types of cells in the endocrine and/or exocrine pancreas.</t>
-  </si>
-  <si>
-    <t>Study is in the category of Islet/beta-cell stimulation/injury and addresses stress sometimes as a means to induce apotosis in islets/ beta cells.</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Questions</t>
-  </si>
-  <si>
     <t>Experimental Factors</t>
   </si>
   <si>
@@ -1341,6 +1319,15 @@
   </si>
   <si>
     <t>Tissue</t>
+  </si>
+  <si>
+    <t>response to stress or apoptosis</t>
+  </si>
+  <si>
+    <t>secretory cell</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CL_0000151</t>
   </si>
 </sst>
 </file>
@@ -1887,10 +1874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,10 +2428,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C54" s="22" t="s">
         <v>23</v>
@@ -2452,7 +2439,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>252</v>
@@ -2463,7 +2450,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>320</v>
@@ -2474,7 +2461,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>30</v>
@@ -2485,7 +2472,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>215</v>
@@ -2496,18 +2483,29 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>321</v>
+        <v>412</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>414</v>
+      </c>
+      <c r="B60" t="s">
+        <v>413</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="62" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="35" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2523,426 +2521,361 @@
     </row>
     <row r="64" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B64" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C64" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="35" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="35" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>330</v>
+      </c>
+      <c r="B71" t="s">
+        <v>331</v>
+      </c>
+      <c r="C71" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>333</v>
+      </c>
+      <c r="B72" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B68" s="4" t="s">
+      <c r="C72" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>134</v>
-      </c>
-      <c r="B69" t="s">
-        <v>135</v>
-      </c>
-      <c r="C69" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>137</v>
-      </c>
-      <c r="B70" t="s">
-        <v>136</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>179</v>
+      <c r="A73" t="s">
+        <v>337</v>
+      </c>
+      <c r="B73" t="s">
+        <v>338</v>
       </c>
       <c r="C73" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="A74" t="s">
+        <v>340</v>
+      </c>
+      <c r="B74" t="s">
+        <v>341</v>
+      </c>
+      <c r="C74" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="A75" t="s">
+        <v>377</v>
+      </c>
+      <c r="B75" t="s">
+        <v>378</v>
+      </c>
+      <c r="C75" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="35" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C78" s="11" t="s">
+      <c r="A76" t="s">
+        <v>346</v>
+      </c>
+      <c r="B76" t="s">
+        <v>347</v>
+      </c>
+      <c r="C76" t="s">
         <v>342</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>344</v>
+      </c>
+      <c r="B77" t="s">
+        <v>345</v>
+      </c>
+      <c r="C77" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>349</v>
+      </c>
+      <c r="B78" t="s">
+        <v>350</v>
+      </c>
+      <c r="C78" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="B79" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="C79" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="B80" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="C80" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B81" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C81" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="B82" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="C82" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="B83" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="C83" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B84" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C84" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="B85" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="C85" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="B86" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="C86" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="B87" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="C87" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="B88" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="C88" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="B89" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="C89" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="B90" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="C90" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="B91" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="C91" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="B92" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="C92" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="B93" t="s">
-        <v>374</v>
+        <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>372</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="B94" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="C94" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="B95" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="C95" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="B96" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="C96" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B97" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="C97" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="B98" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="C98" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="B99" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="C99" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>394</v>
-      </c>
-      <c r="B100" t="s">
-        <v>395</v>
-      </c>
-      <c r="C100" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>396</v>
-      </c>
-      <c r="B101" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>398</v>
-      </c>
-      <c r="B102" t="s">
-        <v>399</v>
-      </c>
-      <c r="C102" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>401</v>
-      </c>
-      <c r="B103" t="s">
-        <v>402</v>
-      </c>
-      <c r="C103" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>404</v>
-      </c>
-      <c r="B104" t="s">
         <v>405</v>
-      </c>
-      <c r="C104" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>407</v>
-      </c>
-      <c r="B105" t="s">
-        <v>408</v>
-      </c>
-      <c r="C105" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>410</v>
-      </c>
-      <c r="B106" t="s">
-        <v>411</v>
-      </c>
-      <c r="C106" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>413</v>
-      </c>
-      <c r="B107" t="s">
-        <v>414</v>
-      </c>
-      <c r="C107" t="s">
-        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -3640,7 +3573,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -4804,7 +4737,7 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
